--- a/tests/insumoIntake.xlsx
+++ b/tests/insumoIntake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Emiliano Reyes\OneDrive - GLOBAL HITSS\Escritorio\FW Interno Pruebas Bancs\FrameworkInterno\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F361A-9010-42CC-81A2-61FFD67FC9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB0BFE-D3BC-4324-81F5-33A4D62AA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{169A7334-E934-4987-A1E4-2063AFF56230}"/>
   </bookViews>
@@ -36,12 +36,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Certificado</t>
   </si>
   <si>
     <t>0000003538245</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>metlifecustomeruser</t>
+  </si>
+  <si>
+    <t>MetLifePilot@1234</t>
+  </si>
+  <si>
+    <t>TypeOfClaim</t>
+  </si>
+  <si>
+    <t>Complementary</t>
+  </si>
+  <si>
+    <t>Abroad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>MetEmployee</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hombro Roto</t>
+  </si>
+  <si>
+    <t>IllnessDetails</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>isidrocarrasco@prueba.com</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>HOSPITAL ANGELES METROPOLITANO</t>
+  </si>
+  <si>
+    <t>Vianney Roman Garcia</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Adicional</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
   </si>
 </sst>
 </file>
@@ -413,67 +476,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F944CC8B-E680-45AB-9E38-8D7A709F17D3}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>6730776222</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -487,5 +625,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>